--- a/backend/etc/file/usa_stock_list.xlsx
+++ b/backend/etc/file/usa_stock_list.xlsx
@@ -6,13 +6,12 @@
   </bookViews>
   <sheets>
     <sheet name="시트1 - 표 1" sheetId="1" r:id="rId4"/>
-    <sheet name="시트1 - 표 1-1" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
   <si>
     <t>Symbol</t>
   </si>
@@ -483,6 +482,523 @@
   </si>
   <si>
     <t>Schwab U.S. Dividend Equity ETF</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>Bank of America Corporation</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>American Express Company</t>
+  </si>
+  <si>
+    <t>OXY</t>
+  </si>
+  <si>
+    <t>Occidental Petroleum Corporation</t>
+  </si>
+  <si>
+    <t>KHC</t>
+  </si>
+  <si>
+    <t>The Kraft Heinz Company</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>Moody's Corporation</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>Chubb Limited</t>
+  </si>
+  <si>
+    <t>DVA</t>
+  </si>
+  <si>
+    <t>DaVita Inc.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Citigroup Inc.</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>The Kroger Co.</t>
+  </si>
+  <si>
+    <t>VRSN</t>
+  </si>
+  <si>
+    <t>VeriSign, Inc.</t>
+  </si>
+  <si>
+    <t>LSXM.K</t>
+  </si>
+  <si>
+    <t>The Liberty SiriusXM Group</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>Nu Holdings Ltd.</t>
+  </si>
+  <si>
+    <t>COF</t>
+  </si>
+  <si>
+    <t>Capital One Financial Corporation</t>
+  </si>
+  <si>
+    <t>AON</t>
+  </si>
+  <si>
+    <t>Aon plc</t>
+  </si>
+  <si>
+    <t>ALLY</t>
+  </si>
+  <si>
+    <t>Ally Financial Inc.</t>
+  </si>
+  <si>
+    <t>CHTR</t>
+  </si>
+  <si>
+    <t>Charter Communications, Inc.</t>
+  </si>
+  <si>
+    <t>LSXM.A</t>
+  </si>
+  <si>
+    <t>FWON.K</t>
+  </si>
+  <si>
+    <t>Formula One Group</t>
+  </si>
+  <si>
+    <t>HLT</t>
+  </si>
+  <si>
+    <t>Hilton Worldwide Holdings Inc.</t>
+  </si>
+  <si>
+    <t>CMG</t>
+  </si>
+  <si>
+    <t>Chipotle Mexican Grill, Inc.</t>
+  </si>
+  <si>
+    <t>QSR</t>
+  </si>
+  <si>
+    <t>Restaurant Brands International Inc.</t>
+  </si>
+  <si>
+    <t>HHH</t>
+  </si>
+  <si>
+    <t>Howard Hughes Holdings Inc.</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Canadian Pacific Kansas City Limited</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>Brookfield Corporation</t>
+  </si>
+  <si>
+    <t>VWO</t>
+  </si>
+  <si>
+    <t>Vanguard International Equity Index Funds</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>Advanced Micro Devices, Inc.</t>
+  </si>
+  <si>
+    <t>MCK</t>
+  </si>
+  <si>
+    <t>McKesson Corporation</t>
+  </si>
+  <si>
+    <t>MBB</t>
+  </si>
+  <si>
+    <t>iShares Trust - iShares MBS ETF</t>
+  </si>
+  <si>
+    <t>AZN</t>
+  </si>
+  <si>
+    <t>AstraZeneca PLC</t>
+  </si>
+  <si>
+    <t>WRK</t>
+  </si>
+  <si>
+    <t>Wrkr Ltd</t>
+  </si>
+  <si>
+    <t>AER</t>
+  </si>
+  <si>
+    <t>AerCap Holdings N.V.</t>
+  </si>
+  <si>
+    <t>AXNX</t>
+  </si>
+  <si>
+    <t>Axonics, Inc.</t>
+  </si>
+  <si>
+    <t>CERE</t>
+  </si>
+  <si>
+    <t>Cerevel Therapeutics Hldng I</t>
+  </si>
+  <si>
+    <t>CHX</t>
+  </si>
+  <si>
+    <t>ChampionX Corporation</t>
+  </si>
+  <si>
+    <t>LBRD.K</t>
+  </si>
+  <si>
+    <t>Liberty Broadband Corporation</t>
+  </si>
+  <si>
+    <t>BABA</t>
+  </si>
+  <si>
+    <t>Alibaba Group Holding Limited</t>
+  </si>
+  <si>
+    <t>BKNG</t>
+  </si>
+  <si>
+    <t>Booking Holdings Inc.</t>
+  </si>
+  <si>
+    <t>SRCL</t>
+  </si>
+  <si>
+    <t>Stericycle, Inc.</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Jacobs Solutions Inc.</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>Uber Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>CRHC.F</t>
+  </si>
+  <si>
+    <t>Crh Plc</t>
+  </si>
+  <si>
+    <t>DOCN</t>
+  </si>
+  <si>
+    <t>DigitalOcean Holdings, Inc.</t>
+  </si>
+  <si>
+    <t>SATS</t>
+  </si>
+  <si>
+    <t>EchoStar Corporation</t>
+  </si>
+  <si>
+    <t>EMXC</t>
+  </si>
+  <si>
+    <t>iShares MSCI Emerging Markets ex China ETF</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>JD.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>, Inc.</t>
+    </r>
+  </si>
+  <si>
+    <t>CBOE</t>
+  </si>
+  <si>
+    <t>Cboe Global Markets, Inc.</t>
+  </si>
+  <si>
+    <t>PDD</t>
+  </si>
+  <si>
+    <t>PDD Holdings Inc.</t>
+  </si>
+  <si>
+    <t>FXI</t>
+  </si>
+  <si>
+    <t>iShares China Large-Cap ETF</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>QUALCOMM Incorporated</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>FedEx Corporation</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Micron Technology, Inc.</t>
+  </si>
+  <si>
+    <t>BIDU</t>
+  </si>
+  <si>
+    <t>Baidu, Inc.</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Energy Transfer LP</t>
+  </si>
+  <si>
+    <t>KWEB</t>
+  </si>
+  <si>
+    <t>KraneShares CSI China Internet ETF</t>
+  </si>
+  <si>
+    <t>LRCX</t>
+  </si>
+  <si>
+    <t>Lam Research Corporation</t>
+  </si>
+  <si>
+    <t>LYFT</t>
+  </si>
+  <si>
+    <t>Lyft, Inc.</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>ASML Holding N.V.</t>
+  </si>
+  <si>
+    <t>CZR</t>
+  </si>
+  <si>
+    <t>Caesars Entertainment, Inc.</t>
+  </si>
+  <si>
+    <t>MDGL</t>
+  </si>
+  <si>
+    <t>Madrigal Pharmaceuticals, Inc.</t>
+  </si>
+  <si>
+    <t>BSIG</t>
+  </si>
+  <si>
+    <t>BrightSphere Investment Group Inc.</t>
+  </si>
+  <si>
+    <t>BHC</t>
+  </si>
+  <si>
+    <t>Bausch Health Companies Inc.</t>
+  </si>
+  <si>
+    <t>PPTA</t>
+  </si>
+  <si>
+    <t>Perpetua Resources Corp.</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>NovaGold Resources Inc.</t>
+  </si>
+  <si>
+    <t>AEM</t>
+  </si>
+  <si>
+    <t>Agnico Eagle Mines Limited</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>AngloGold Ashanti plc</t>
+  </si>
+  <si>
+    <t>THRY</t>
+  </si>
+  <si>
+    <t>Thryv Holdings, Inc.</t>
+  </si>
+  <si>
+    <t>THM</t>
+  </si>
+  <si>
+    <t>International Tower Hill Mines Ltd.</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Seabridge Gold Inc.</t>
+  </si>
+  <si>
+    <t>EQX</t>
+  </si>
+  <si>
+    <t>Equinox Gold Corp.</t>
+  </si>
+  <si>
+    <t>TMQ</t>
+  </si>
+  <si>
+    <t>Trilogy Metals Inc.</t>
+  </si>
+  <si>
+    <t>IAG</t>
+  </si>
+  <si>
+    <t>IAMGOLD Corporation</t>
+  </si>
+  <si>
+    <t>TELL</t>
+  </si>
+  <si>
+    <t>Tellurian Inc.</t>
+  </si>
+  <si>
+    <t>ATUS</t>
+  </si>
+  <si>
+    <t>Altice USA, Inc.</t>
+  </si>
+  <si>
+    <t>EVBG</t>
+  </si>
+  <si>
+    <t>Everbridge Inc</t>
+  </si>
+  <si>
+    <t>JHG</t>
+  </si>
+  <si>
+    <t>Janus Henderson Group plc</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>General Electric Company</t>
+  </si>
+  <si>
+    <t>WEN</t>
+  </si>
+  <si>
+    <t>The Wendy's Company</t>
+  </si>
+  <si>
+    <t>IVZ</t>
+  </si>
+  <si>
+    <t>Invesco Ltd.</t>
+  </si>
+  <si>
+    <t>FERG</t>
+  </si>
+  <si>
+    <t>Ferguson Enterprises Inc.</t>
+  </si>
+  <si>
+    <t>SOLV</t>
+  </si>
+  <si>
+    <t>Solventum Corporation</t>
+  </si>
+  <si>
+    <t>GEHC</t>
+  </si>
+  <si>
+    <t>GE HealthCare Technologies Inc.</t>
+  </si>
+  <si>
+    <t>UHALb</t>
+  </si>
+  <si>
+    <t>U Haul Holding Co</t>
+  </si>
+  <si>
+    <t>UHAL</t>
+  </si>
+  <si>
+    <t>U-Haul Holding Company</t>
+  </si>
+  <si>
+    <t>RTOKY</t>
+  </si>
+  <si>
+    <t>Rentokil Initial plc</t>
   </si>
 </sst>
 </file>
@@ -492,7 +1008,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -514,6 +1030,12 @@
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -529,7 +1051,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -552,13 +1074,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -574,7 +1183,40 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -596,6 +1238,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1660,7 +2303,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2812,1173 +3455,1389 @@
       </c>
       <c r="E76" s="3"/>
     </row>
+    <row r="77" ht="13.65" customHeight="1">
+      <c r="A77" t="s" s="4">
+        <v>157</v>
+      </c>
+      <c r="B77" t="s" s="4">
+        <v>158</v>
+      </c>
+      <c r="C77" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" ht="13.65" customHeight="1">
+      <c r="A78" t="s" s="4">
+        <v>159</v>
+      </c>
+      <c r="B78" t="s" s="4">
+        <v>160</v>
+      </c>
+      <c r="C78" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" ht="13.65" customHeight="1">
+      <c r="A79" t="s" s="4">
+        <v>161</v>
+      </c>
+      <c r="B79" t="s" s="4">
+        <v>162</v>
+      </c>
+      <c r="C79" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" ht="13.65" customHeight="1">
+      <c r="A80" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="B80" t="s" s="4">
+        <v>164</v>
+      </c>
+      <c r="C80" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" ht="13.65" customHeight="1">
+      <c r="A81" t="s" s="4">
+        <v>165</v>
+      </c>
+      <c r="B81" t="s" s="4">
+        <v>166</v>
+      </c>
+      <c r="C81" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" ht="13.65" customHeight="1">
+      <c r="A82" t="s" s="4">
+        <v>167</v>
+      </c>
+      <c r="B82" t="s" s="4">
+        <v>168</v>
+      </c>
+      <c r="C82" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" ht="13.65" customHeight="1">
+      <c r="A83" t="s" s="4">
+        <v>169</v>
+      </c>
+      <c r="B83" t="s" s="4">
+        <v>170</v>
+      </c>
+      <c r="C83" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" ht="13.65" customHeight="1">
+      <c r="A84" t="s" s="4">
+        <v>171</v>
+      </c>
+      <c r="B84" t="s" s="4">
+        <v>172</v>
+      </c>
+      <c r="C84" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" ht="13.65" customHeight="1">
+      <c r="A85" t="s" s="4">
+        <v>173</v>
+      </c>
+      <c r="B85" t="s" s="4">
+        <v>174</v>
+      </c>
+      <c r="C85" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" ht="13.65" customHeight="1">
+      <c r="A86" t="s" s="4">
+        <v>175</v>
+      </c>
+      <c r="B86" t="s" s="4">
+        <v>176</v>
+      </c>
+      <c r="C86" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" ht="13.65" customHeight="1">
+      <c r="A87" t="s" s="4">
+        <v>177</v>
+      </c>
+      <c r="B87" t="s" s="4">
+        <v>178</v>
+      </c>
+      <c r="C87" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" ht="13.65" customHeight="1">
+      <c r="A88" t="s" s="4">
+        <v>179</v>
+      </c>
+      <c r="B88" t="s" s="4">
+        <v>180</v>
+      </c>
+      <c r="C88" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" ht="13.65" customHeight="1">
+      <c r="A89" t="s" s="4">
+        <v>181</v>
+      </c>
+      <c r="B89" t="s" s="4">
+        <v>182</v>
+      </c>
+      <c r="C89" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" ht="13.65" customHeight="1">
+      <c r="A90" t="s" s="4">
+        <v>183</v>
+      </c>
+      <c r="B90" t="s" s="4">
+        <v>184</v>
+      </c>
+      <c r="C90" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" ht="13.65" customHeight="1">
+      <c r="A91" t="s" s="4">
+        <v>185</v>
+      </c>
+      <c r="B91" t="s" s="4">
+        <v>186</v>
+      </c>
+      <c r="C91" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" ht="13.65" customHeight="1">
+      <c r="A92" t="s" s="4">
+        <v>187</v>
+      </c>
+      <c r="B92" t="s" s="4">
+        <v>188</v>
+      </c>
+      <c r="C92" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" ht="13.65" customHeight="1">
+      <c r="A93" t="s" s="4">
+        <v>189</v>
+      </c>
+      <c r="B93" t="s" s="4">
+        <v>178</v>
+      </c>
+      <c r="C93" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" ht="13.65" customHeight="1">
+      <c r="A94" t="s" s="4">
+        <v>190</v>
+      </c>
+      <c r="B94" t="s" s="4">
+        <v>191</v>
+      </c>
+      <c r="C94" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" ht="13.65" customHeight="1">
+      <c r="A95" t="s" s="5">
+        <v>192</v>
+      </c>
+      <c r="B95" t="s" s="6">
+        <v>193</v>
+      </c>
+      <c r="C95" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" ht="13.65" customHeight="1">
+      <c r="A96" t="s" s="7">
+        <v>194</v>
+      </c>
+      <c r="B96" t="s" s="8">
+        <v>195</v>
+      </c>
+      <c r="C96" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" ht="13.65" customHeight="1">
+      <c r="A97" t="s" s="7">
+        <v>196</v>
+      </c>
+      <c r="B97" t="s" s="8">
+        <v>197</v>
+      </c>
+      <c r="C97" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" ht="13.65" customHeight="1">
+      <c r="A98" t="s" s="7">
+        <v>198</v>
+      </c>
+      <c r="B98" t="s" s="8">
+        <v>199</v>
+      </c>
+      <c r="C98" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" ht="13.65" customHeight="1">
+      <c r="A99" t="s" s="7">
+        <v>200</v>
+      </c>
+      <c r="B99" t="s" s="8">
+        <v>201</v>
+      </c>
+      <c r="C99" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" ht="13.65" customHeight="1">
+      <c r="A100" t="s" s="7">
+        <v>202</v>
+      </c>
+      <c r="B100" t="s" s="8">
+        <v>203</v>
+      </c>
+      <c r="C100" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" ht="13.65" customHeight="1">
+      <c r="A101" t="s" s="7">
+        <v>204</v>
+      </c>
+      <c r="B101" t="s" s="8">
+        <v>205</v>
+      </c>
+      <c r="C101" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" ht="13.65" customHeight="1">
+      <c r="A102" t="s" s="7">
+        <v>206</v>
+      </c>
+      <c r="B102" t="s" s="8">
+        <v>207</v>
+      </c>
+      <c r="C102" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" ht="13.65" customHeight="1">
+      <c r="A103" t="s" s="7">
+        <v>208</v>
+      </c>
+      <c r="B103" t="s" s="8">
+        <v>209</v>
+      </c>
+      <c r="C103" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" ht="13.65" customHeight="1">
+      <c r="A104" t="s" s="7">
+        <v>210</v>
+      </c>
+      <c r="B104" t="s" s="8">
+        <v>211</v>
+      </c>
+      <c r="C104" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" ht="13.65" customHeight="1">
+      <c r="A105" t="s" s="7">
+        <v>212</v>
+      </c>
+      <c r="B105" t="s" s="8">
+        <v>213</v>
+      </c>
+      <c r="C105" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" ht="13.65" customHeight="1">
+      <c r="A106" t="s" s="7">
+        <v>214</v>
+      </c>
+      <c r="B106" t="s" s="8">
+        <v>215</v>
+      </c>
+      <c r="C106" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" ht="13.65" customHeight="1">
+      <c r="A107" t="s" s="7">
+        <v>216</v>
+      </c>
+      <c r="B107" t="s" s="8">
+        <v>217</v>
+      </c>
+      <c r="C107" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" ht="13.65" customHeight="1">
+      <c r="A108" t="s" s="7">
+        <v>218</v>
+      </c>
+      <c r="B108" t="s" s="8">
+        <v>219</v>
+      </c>
+      <c r="C108" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" ht="13.65" customHeight="1">
+      <c r="A109" t="s" s="7">
+        <v>220</v>
+      </c>
+      <c r="B109" t="s" s="8">
+        <v>221</v>
+      </c>
+      <c r="C109" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" ht="13.65" customHeight="1">
+      <c r="A110" t="s" s="7">
+        <v>222</v>
+      </c>
+      <c r="B110" t="s" s="8">
+        <v>223</v>
+      </c>
+      <c r="C110" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" ht="13.65" customHeight="1">
+      <c r="A111" t="s" s="7">
+        <v>224</v>
+      </c>
+      <c r="B111" t="s" s="8">
+        <v>225</v>
+      </c>
+      <c r="C111" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" ht="13.65" customHeight="1">
+      <c r="A112" t="s" s="7">
+        <v>226</v>
+      </c>
+      <c r="B112" t="s" s="8">
+        <v>227</v>
+      </c>
+      <c r="C112" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" ht="13.65" customHeight="1">
+      <c r="A113" t="s" s="7">
+        <v>228</v>
+      </c>
+      <c r="B113" t="s" s="8">
+        <v>229</v>
+      </c>
+      <c r="C113" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" ht="13.65" customHeight="1">
+      <c r="A114" t="s" s="7">
+        <v>230</v>
+      </c>
+      <c r="B114" t="s" s="8">
+        <v>231</v>
+      </c>
+      <c r="C114" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" ht="13.65" customHeight="1">
+      <c r="A115" t="s" s="7">
+        <v>232</v>
+      </c>
+      <c r="B115" t="s" s="8">
+        <v>233</v>
+      </c>
+      <c r="C115" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" ht="13.65" customHeight="1">
+      <c r="A116" t="s" s="7">
+        <v>234</v>
+      </c>
+      <c r="B116" t="s" s="8">
+        <v>235</v>
+      </c>
+      <c r="C116" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" ht="13.65" customHeight="1">
+      <c r="A117" t="s" s="7">
+        <v>236</v>
+      </c>
+      <c r="B117" t="s" s="8">
+        <v>237</v>
+      </c>
+      <c r="C117" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" ht="13.65" customHeight="1">
+      <c r="A118" t="s" s="7">
+        <v>238</v>
+      </c>
+      <c r="B118" t="s" s="8">
+        <v>239</v>
+      </c>
+      <c r="C118" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" ht="13.65" customHeight="1">
+      <c r="A119" t="s" s="7">
+        <v>240</v>
+      </c>
+      <c r="B119" t="s" s="8">
+        <v>241</v>
+      </c>
+      <c r="C119" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" ht="13.65" customHeight="1">
+      <c r="A120" t="s" s="7">
+        <v>242</v>
+      </c>
+      <c r="B120" t="s" s="8">
+        <v>243</v>
+      </c>
+      <c r="C120" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" ht="13.65" customHeight="1">
+      <c r="A121" t="s" s="7">
+        <v>244</v>
+      </c>
+      <c r="B121" t="s" s="8">
+        <v>245</v>
+      </c>
+      <c r="C121" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" ht="13.65" customHeight="1">
+      <c r="A122" t="s" s="7">
+        <v>246</v>
+      </c>
+      <c r="B122" t="s" s="8">
+        <v>247</v>
+      </c>
+      <c r="C122" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" ht="13.65" customHeight="1">
+      <c r="A123" t="s" s="7">
+        <v>248</v>
+      </c>
+      <c r="B123" t="s" s="8">
+        <v>249</v>
+      </c>
+      <c r="C123" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" ht="13.65" customHeight="1">
+      <c r="A124" t="s" s="7">
+        <v>250</v>
+      </c>
+      <c r="B124" t="s" s="8">
+        <v>251</v>
+      </c>
+      <c r="C124" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" ht="13.65" customHeight="1">
+      <c r="A125" t="s" s="7">
+        <v>252</v>
+      </c>
+      <c r="B125" t="s" s="8">
+        <v>253</v>
+      </c>
+      <c r="C125" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" ht="13.65" customHeight="1">
+      <c r="A126" t="s" s="7">
+        <v>254</v>
+      </c>
+      <c r="B126" t="s" s="8">
+        <v>255</v>
+      </c>
+      <c r="C126" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" ht="13.65" customHeight="1">
+      <c r="A127" t="s" s="7">
+        <v>256</v>
+      </c>
+      <c r="B127" t="s" s="8">
+        <v>257</v>
+      </c>
+      <c r="C127" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" ht="13.65" customHeight="1">
+      <c r="A128" t="s" s="7">
+        <v>258</v>
+      </c>
+      <c r="B128" t="s" s="8">
+        <v>259</v>
+      </c>
+      <c r="C128" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" ht="13.65" customHeight="1">
+      <c r="A129" t="s" s="7">
+        <v>260</v>
+      </c>
+      <c r="B129" t="s" s="8">
+        <v>261</v>
+      </c>
+      <c r="C129" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" ht="13.65" customHeight="1">
+      <c r="A130" t="s" s="7">
+        <v>262</v>
+      </c>
+      <c r="B130" t="s" s="8">
+        <v>263</v>
+      </c>
+      <c r="C130" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" ht="13.65" customHeight="1">
+      <c r="A131" t="s" s="7">
+        <v>264</v>
+      </c>
+      <c r="B131" t="s" s="8">
+        <v>265</v>
+      </c>
+      <c r="C131" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" ht="13.65" customHeight="1">
+      <c r="A132" t="s" s="7">
+        <v>266</v>
+      </c>
+      <c r="B132" t="s" s="8">
+        <v>267</v>
+      </c>
+      <c r="C132" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" ht="13.65" customHeight="1">
+      <c r="A133" t="s" s="7">
+        <v>268</v>
+      </c>
+      <c r="B133" t="s" s="8">
+        <v>269</v>
+      </c>
+      <c r="C133" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" ht="13.65" customHeight="1">
+      <c r="A134" t="s" s="7">
+        <v>270</v>
+      </c>
+      <c r="B134" t="s" s="8">
+        <v>271</v>
+      </c>
+      <c r="C134" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" ht="13.65" customHeight="1">
+      <c r="A135" t="s" s="7">
+        <v>272</v>
+      </c>
+      <c r="B135" t="s" s="8">
+        <v>273</v>
+      </c>
+      <c r="C135" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" ht="13.65" customHeight="1">
+      <c r="A136" t="s" s="7">
+        <v>274</v>
+      </c>
+      <c r="B136" t="s" s="8">
+        <v>275</v>
+      </c>
+      <c r="C136" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" ht="13.65" customHeight="1">
+      <c r="A137" t="s" s="7">
+        <v>276</v>
+      </c>
+      <c r="B137" t="s" s="8">
+        <v>277</v>
+      </c>
+      <c r="C137" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" ht="13.65" customHeight="1">
+      <c r="A138" t="s" s="7">
+        <v>278</v>
+      </c>
+      <c r="B138" t="s" s="8">
+        <v>279</v>
+      </c>
+      <c r="C138" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" ht="13.65" customHeight="1">
+      <c r="A139" t="s" s="7">
+        <v>280</v>
+      </c>
+      <c r="B139" t="s" s="8">
+        <v>281</v>
+      </c>
+      <c r="C139" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" ht="13.65" customHeight="1">
+      <c r="A140" t="s" s="7">
+        <v>282</v>
+      </c>
+      <c r="B140" t="s" s="8">
+        <v>283</v>
+      </c>
+      <c r="C140" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" ht="13.65" customHeight="1">
+      <c r="A141" t="s" s="7">
+        <v>284</v>
+      </c>
+      <c r="B141" t="s" s="8">
+        <v>285</v>
+      </c>
+      <c r="C141" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" ht="13.65" customHeight="1">
+      <c r="A142" t="s" s="7">
+        <v>286</v>
+      </c>
+      <c r="B142" t="s" s="8">
+        <v>287</v>
+      </c>
+      <c r="C142" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" ht="13.65" customHeight="1">
+      <c r="A143" t="s" s="7">
+        <v>288</v>
+      </c>
+      <c r="B143" t="s" s="8">
+        <v>289</v>
+      </c>
+      <c r="C143" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" ht="13.65" customHeight="1">
+      <c r="A144" t="s" s="7">
+        <v>290</v>
+      </c>
+      <c r="B144" t="s" s="8">
+        <v>291</v>
+      </c>
+      <c r="C144" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" ht="13.65" customHeight="1">
+      <c r="A145" t="s" s="7">
+        <v>292</v>
+      </c>
+      <c r="B145" t="s" s="8">
+        <v>293</v>
+      </c>
+      <c r="C145" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" ht="13.65" customHeight="1">
+      <c r="A146" t="s" s="7">
+        <v>294</v>
+      </c>
+      <c r="B146" t="s" s="8">
+        <v>295</v>
+      </c>
+      <c r="C146" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" ht="13.65" customHeight="1">
+      <c r="A147" t="s" s="7">
+        <v>296</v>
+      </c>
+      <c r="B147" t="s" s="8">
+        <v>297</v>
+      </c>
+      <c r="C147" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" ht="13.65" customHeight="1">
+      <c r="A148" t="s" s="7">
+        <v>298</v>
+      </c>
+      <c r="B148" t="s" s="8">
+        <v>299</v>
+      </c>
+      <c r="C148" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" ht="13.65" customHeight="1">
+      <c r="A149" t="s" s="7">
+        <v>300</v>
+      </c>
+      <c r="B149" t="s" s="8">
+        <v>301</v>
+      </c>
+      <c r="C149" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" ht="13.65" customHeight="1">
+      <c r="A150" t="s" s="7">
+        <v>302</v>
+      </c>
+      <c r="B150" t="s" s="8">
+        <v>303</v>
+      </c>
+      <c r="C150" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" ht="13.65" customHeight="1">
+      <c r="A151" t="s" s="7">
+        <v>304</v>
+      </c>
+      <c r="B151" t="s" s="8">
+        <v>305</v>
+      </c>
+      <c r="C151" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" ht="13.65" customHeight="1">
+      <c r="A152" t="s" s="7">
+        <v>306</v>
+      </c>
+      <c r="B152" t="s" s="8">
+        <v>307</v>
+      </c>
+      <c r="C152" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" ht="13.65" customHeight="1">
+      <c r="A153" t="s" s="7">
+        <v>308</v>
+      </c>
+      <c r="B153" t="s" s="8">
+        <v>309</v>
+      </c>
+      <c r="C153" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" ht="13.65" customHeight="1">
+      <c r="A154" t="s" s="7">
+        <v>310</v>
+      </c>
+      <c r="B154" t="s" s="8">
+        <v>311</v>
+      </c>
+      <c r="C154" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" ht="13.65" customHeight="1">
+      <c r="A155" t="s" s="7">
+        <v>312</v>
+      </c>
+      <c r="B155" t="s" s="8">
+        <v>313</v>
+      </c>
+      <c r="C155" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D155" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" ht="13.65" customHeight="1">
+      <c r="A156" t="s" s="7">
+        <v>314</v>
+      </c>
+      <c r="B156" t="s" s="8">
+        <v>315</v>
+      </c>
+      <c r="C156" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" ht="13.65" customHeight="1">
+      <c r="A157" t="s" s="7">
+        <v>316</v>
+      </c>
+      <c r="B157" t="s" s="8">
+        <v>317</v>
+      </c>
+      <c r="C157" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D157" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" ht="13.65" customHeight="1">
+      <c r="A158" t="s" s="7">
+        <v>318</v>
+      </c>
+      <c r="B158" t="s" s="8">
+        <v>319</v>
+      </c>
+      <c r="C158" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" ht="13.65" customHeight="1">
+      <c r="A159" t="s" s="7">
+        <v>320</v>
+      </c>
+      <c r="B159" t="s" s="8">
+        <v>321</v>
+      </c>
+      <c r="C159" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" ht="13.65" customHeight="1">
+      <c r="A160" t="s" s="7">
+        <v>322</v>
+      </c>
+      <c r="B160" t="s" s="8">
+        <v>323</v>
+      </c>
+      <c r="C160" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="D160" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" ht="13.65" customHeight="1">
+      <c r="A161" s="9"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" ht="13.65" customHeight="1">
+      <c r="A162" s="9"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" ht="13.65" customHeight="1">
+      <c r="A163" s="9"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" ht="13.65" customHeight="1">
+      <c r="A164" s="9"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" ht="13.65" customHeight="1">
+      <c r="A165" s="9"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" ht="13.65" customHeight="1">
+      <c r="A166" s="9"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" ht="13.65" customHeight="1">
+      <c r="A167" s="9"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" ht="13.65" customHeight="1">
+      <c r="A168" s="9"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" ht="13.65" customHeight="1">
+      <c r="A169" s="9"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" ht="13.65" customHeight="1">
+      <c r="A170" s="9"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" ht="13.65" customHeight="1">
+      <c r="A171" s="9"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="3"/>
+    </row>
+    <row r="172" ht="13.65" customHeight="1">
+      <c r="A172" s="9"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" ht="13.65" customHeight="1">
+      <c r="A173" s="9"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" ht="13.65" customHeight="1">
+      <c r="A174" s="9"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" ht="13.65" customHeight="1">
+      <c r="A175" s="9"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="3"/>
+    </row>
+    <row r="176" ht="13.65" customHeight="1">
+      <c r="A176" s="9"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" ht="13.65" customHeight="1">
+      <c r="A177" s="14"/>
+      <c r="B177" s="15"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="3"/>
+    </row>
   </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E76"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="12.6719" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.3516" style="5" customWidth="1"/>
-    <col min="3" max="5" width="12.6719" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s" s="4">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" ht="13.65" customHeight="1">
-      <c r="A12" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s" s="4">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" ht="13.65" customHeight="1">
-      <c r="A13" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" ht="13.65" customHeight="1">
-      <c r="A14" t="s" s="4">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s" s="4">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" ht="13.65" customHeight="1">
-      <c r="A15" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="13.65" customHeight="1">
-      <c r="A16" t="s" s="4">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" ht="13.65" customHeight="1">
-      <c r="A17" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" ht="13.65" customHeight="1">
-      <c r="A18" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" ht="13.65" customHeight="1">
-      <c r="A19" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" ht="13.65" customHeight="1">
-      <c r="A20" t="s" s="4">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s" s="4">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" ht="13.65" customHeight="1">
-      <c r="A21" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" ht="13.65" customHeight="1">
-      <c r="A22" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s" s="4">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" ht="13.65" customHeight="1">
-      <c r="A23" t="s" s="4">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s" s="4">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" ht="13.65" customHeight="1">
-      <c r="A24" t="s" s="4">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s" s="4">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" ht="13.65" customHeight="1">
-      <c r="A25" t="s" s="4">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s" s="4">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" ht="13.65" customHeight="1">
-      <c r="A26" t="s" s="4">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s" s="4">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" ht="13.65" customHeight="1">
-      <c r="A27" t="s" s="4">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" ht="13.65" customHeight="1">
-      <c r="A28" t="s" s="4">
-        <v>59</v>
-      </c>
-      <c r="B28" t="s" s="4">
-        <v>60</v>
-      </c>
-      <c r="C28" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" ht="13.65" customHeight="1">
-      <c r="A29" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s" s="4">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" ht="13.65" customHeight="1">
-      <c r="A30" t="s" s="4">
-        <v>63</v>
-      </c>
-      <c r="B30" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" ht="13.65" customHeight="1">
-      <c r="A31" t="s" s="4">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s" s="4">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" ht="13.65" customHeight="1">
-      <c r="A32" t="s" s="4">
-        <v>67</v>
-      </c>
-      <c r="B32" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="C32" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" ht="13.65" customHeight="1">
-      <c r="A33" t="s" s="4">
-        <v>69</v>
-      </c>
-      <c r="B33" t="s" s="4">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" ht="13.65" customHeight="1">
-      <c r="A34" t="s" s="4">
-        <v>71</v>
-      </c>
-      <c r="B34" t="s" s="4">
-        <v>72</v>
-      </c>
-      <c r="C34" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" ht="13.65" customHeight="1">
-      <c r="A35" t="s" s="4">
-        <v>73</v>
-      </c>
-      <c r="B35" t="s" s="4">
-        <v>74</v>
-      </c>
-      <c r="C35" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" ht="13.65" customHeight="1">
-      <c r="A36" t="s" s="4">
-        <v>75</v>
-      </c>
-      <c r="B36" t="s" s="4">
-        <v>76</v>
-      </c>
-      <c r="C36" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" ht="13.65" customHeight="1">
-      <c r="A37" t="s" s="4">
-        <v>77</v>
-      </c>
-      <c r="B37" t="s" s="4">
-        <v>78</v>
-      </c>
-      <c r="C37" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" ht="13.65" customHeight="1">
-      <c r="A38" t="s" s="4">
-        <v>79</v>
-      </c>
-      <c r="B38" t="s" s="4">
-        <v>80</v>
-      </c>
-      <c r="C38" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" ht="13.65" customHeight="1">
-      <c r="A39" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="B39" t="s" s="4">
-        <v>82</v>
-      </c>
-      <c r="C39" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" ht="13.65" customHeight="1">
-      <c r="A40" t="s" s="4">
-        <v>83</v>
-      </c>
-      <c r="B40" t="s" s="4">
-        <v>84</v>
-      </c>
-      <c r="C40" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" ht="13.65" customHeight="1">
-      <c r="A41" t="s" s="4">
-        <v>85</v>
-      </c>
-      <c r="B41" t="s" s="4">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D41" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" ht="13.65" customHeight="1">
-      <c r="A42" t="s" s="4">
-        <v>87</v>
-      </c>
-      <c r="B42" t="s" s="4">
-        <v>88</v>
-      </c>
-      <c r="C42" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" ht="13.65" customHeight="1">
-      <c r="A43" t="s" s="4">
-        <v>89</v>
-      </c>
-      <c r="B43" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C43" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" ht="13.65" customHeight="1">
-      <c r="A44" t="s" s="4">
-        <v>91</v>
-      </c>
-      <c r="B44" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="C44" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" ht="13.65" customHeight="1">
-      <c r="A45" t="s" s="4">
-        <v>93</v>
-      </c>
-      <c r="B45" t="s" s="4">
-        <v>94</v>
-      </c>
-      <c r="C45" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" ht="13.65" customHeight="1">
-      <c r="A46" t="s" s="4">
-        <v>95</v>
-      </c>
-      <c r="B46" t="s" s="4">
-        <v>96</v>
-      </c>
-      <c r="C46" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" ht="13.65" customHeight="1">
-      <c r="A47" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="B47" t="s" s="4">
-        <v>98</v>
-      </c>
-      <c r="C47" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D47" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" ht="13.65" customHeight="1">
-      <c r="A48" t="s" s="4">
-        <v>99</v>
-      </c>
-      <c r="B48" t="s" s="4">
-        <v>100</v>
-      </c>
-      <c r="C48" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" ht="13.65" customHeight="1">
-      <c r="A49" t="s" s="4">
-        <v>101</v>
-      </c>
-      <c r="B49" t="s" s="4">
-        <v>102</v>
-      </c>
-      <c r="C49" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" ht="13.65" customHeight="1">
-      <c r="A50" t="s" s="4">
-        <v>103</v>
-      </c>
-      <c r="B50" t="s" s="4">
-        <v>104</v>
-      </c>
-      <c r="C50" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D50" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" ht="13.65" customHeight="1">
-      <c r="A51" t="s" s="4">
-        <v>105</v>
-      </c>
-      <c r="B51" t="s" s="4">
-        <v>106</v>
-      </c>
-      <c r="C51" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D51" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" ht="13.65" customHeight="1">
-      <c r="A52" t="s" s="4">
-        <v>107</v>
-      </c>
-      <c r="B52" t="s" s="4">
-        <v>108</v>
-      </c>
-      <c r="C52" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" ht="13.65" customHeight="1">
-      <c r="A53" t="s" s="4">
-        <v>109</v>
-      </c>
-      <c r="B53" t="s" s="4">
-        <v>110</v>
-      </c>
-      <c r="C53" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" ht="13.65" customHeight="1">
-      <c r="A54" t="s" s="4">
-        <v>111</v>
-      </c>
-      <c r="B54" t="s" s="4">
-        <v>112</v>
-      </c>
-      <c r="C54" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D54" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" ht="13.65" customHeight="1">
-      <c r="A55" t="s" s="4">
-        <v>113</v>
-      </c>
-      <c r="B55" t="s" s="4">
-        <v>114</v>
-      </c>
-      <c r="C55" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D55" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" ht="13.65" customHeight="1">
-      <c r="A56" t="s" s="4">
-        <v>115</v>
-      </c>
-      <c r="B56" t="s" s="4">
-        <v>116</v>
-      </c>
-      <c r="C56" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D56" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" ht="13.65" customHeight="1">
-      <c r="A57" t="s" s="4">
-        <v>117</v>
-      </c>
-      <c r="B57" t="s" s="4">
-        <v>118</v>
-      </c>
-      <c r="C57" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D57" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" ht="13.65" customHeight="1">
-      <c r="A58" t="s" s="4">
-        <v>119</v>
-      </c>
-      <c r="B58" t="s" s="4">
-        <v>120</v>
-      </c>
-      <c r="C58" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" ht="13.65" customHeight="1">
-      <c r="A59" t="s" s="4">
-        <v>121</v>
-      </c>
-      <c r="B59" t="s" s="4">
-        <v>122</v>
-      </c>
-      <c r="C59" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" ht="13.65" customHeight="1">
-      <c r="A60" t="s" s="4">
-        <v>123</v>
-      </c>
-      <c r="B60" t="s" s="4">
-        <v>124</v>
-      </c>
-      <c r="C60" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D60" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" ht="13.65" customHeight="1">
-      <c r="A61" t="s" s="4">
-        <v>125</v>
-      </c>
-      <c r="B61" t="s" s="4">
-        <v>126</v>
-      </c>
-      <c r="C61" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D61" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" ht="13.65" customHeight="1">
-      <c r="A62" t="s" s="4">
-        <v>127</v>
-      </c>
-      <c r="B62" t="s" s="4">
-        <v>128</v>
-      </c>
-      <c r="C62" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D62" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" ht="13.65" customHeight="1">
-      <c r="A63" t="s" s="4">
-        <v>129</v>
-      </c>
-      <c r="B63" t="s" s="4">
-        <v>130</v>
-      </c>
-      <c r="C63" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D63" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" ht="13.65" customHeight="1">
-      <c r="A64" t="s" s="4">
-        <v>131</v>
-      </c>
-      <c r="B64" t="s" s="4">
-        <v>132</v>
-      </c>
-      <c r="C64" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D64" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" ht="13.65" customHeight="1">
-      <c r="A65" t="s" s="4">
-        <v>133</v>
-      </c>
-      <c r="B65" t="s" s="4">
-        <v>134</v>
-      </c>
-      <c r="C65" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D65" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" ht="13.65" customHeight="1">
-      <c r="A66" t="s" s="4">
-        <v>135</v>
-      </c>
-      <c r="B66" t="s" s="4">
-        <v>136</v>
-      </c>
-      <c r="C66" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D66" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" ht="13.65" customHeight="1">
-      <c r="A67" t="s" s="4">
-        <v>137</v>
-      </c>
-      <c r="B67" t="s" s="4">
-        <v>138</v>
-      </c>
-      <c r="C67" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D67" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" ht="13.65" customHeight="1">
-      <c r="A68" t="s" s="4">
-        <v>139</v>
-      </c>
-      <c r="B68" t="s" s="4">
-        <v>140</v>
-      </c>
-      <c r="C68" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D68" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" ht="13.65" customHeight="1">
-      <c r="A69" t="s" s="4">
-        <v>141</v>
-      </c>
-      <c r="B69" t="s" s="4">
-        <v>142</v>
-      </c>
-      <c r="C69" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D69" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" ht="13.65" customHeight="1">
-      <c r="A70" t="s" s="4">
-        <v>143</v>
-      </c>
-      <c r="B70" t="s" s="4">
-        <v>144</v>
-      </c>
-      <c r="C70" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D70" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" ht="13.65" customHeight="1">
-      <c r="A71" t="s" s="4">
-        <v>145</v>
-      </c>
-      <c r="B71" t="s" s="4">
-        <v>146</v>
-      </c>
-      <c r="C71" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D71" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" ht="13.65" customHeight="1">
-      <c r="A72" t="s" s="4">
-        <v>147</v>
-      </c>
-      <c r="B72" t="s" s="4">
-        <v>148</v>
-      </c>
-      <c r="C72" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D72" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" ht="13.65" customHeight="1">
-      <c r="A73" t="s" s="4">
-        <v>149</v>
-      </c>
-      <c r="B73" t="s" s="4">
-        <v>150</v>
-      </c>
-      <c r="C73" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D73" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" ht="13.65" customHeight="1">
-      <c r="A74" t="s" s="4">
-        <v>151</v>
-      </c>
-      <c r="B74" t="s" s="4">
-        <v>152</v>
-      </c>
-      <c r="C74" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D74" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" ht="13.65" customHeight="1">
-      <c r="A75" t="s" s="4">
-        <v>153</v>
-      </c>
-      <c r="B75" t="s" s="4">
-        <v>154</v>
-      </c>
-      <c r="C75" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D75" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" ht="13.65" customHeight="1">
-      <c r="A76" t="s" s="4">
-        <v>155</v>
-      </c>
-      <c r="B76" t="s" s="4">
-        <v>156</v>
-      </c>
-      <c r="C76" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="D76" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="E76" s="3"/>
-    </row>
-  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B121" r:id="rId1" location="" tooltip="" display="JD.com"/>
+  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
